--- a/Coffee_TestCase.xlsx
+++ b/Coffee_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DiDong2\DoAn_DiDong2_Nhom5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11660AB4-34AE-4E69-9DA0-8BF9C1F8A753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3D1303-0FA0-4668-9F3B-D6B78B27DD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -480,6 +480,26 @@
   <si>
     <t>ABC02</t>
   </si>
+  <si>
+    <t>Kiểm tra giá trị max của số lượng món</t>
+  </si>
+  <si>
+    <t>Step 1: Mở app POS APP
+Step 2: Đăng nhập hệ thống
+Step 3: Chọn menu bán hàng
+Step 4: Chọn Khu vực, bàn
+Step 5: Thực hiện order với số lượng/ món là 101
+Step 6: Ấn Xong</t>
+  </si>
+  <si>
+    <t>- Hệ thống xuất hiện cảnh báo vượt quá số lượng</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>HAC22</t>
+  </si>
 </sst>
 </file>
 
@@ -832,10 +852,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1130,25 +1150,23 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1172,23 +1190,23 @@
     </row>
     <row r="9" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1210,25 +1228,25 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1250,25 +1268,25 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="153" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1290,25 +1308,25 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1332,23 +1350,23 @@
     </row>
     <row r="13" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1370,25 +1388,25 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1410,105 +1428,105 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="153" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
+    <row r="15" spans="1:26" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="153" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1530,25 +1548,25 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1570,25 +1588,25 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="153" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
+    <row r="19" spans="1:26" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1610,25 +1628,25 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="153" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1652,23 +1670,23 @@
     </row>
     <row r="21" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1690,25 +1708,25 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="153" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1730,25 +1748,25 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1772,23 +1790,23 @@
     </row>
     <row r="24" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1810,14 +1828,26 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2427,13 +2457,13 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -29306,10 +29336,38 @@
       <c r="Y1006" s="3"/>
       <c r="Z1006" s="3"/>
     </row>
+    <row r="1007" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1007" s="11"/>
+      <c r="B1007" s="12"/>
+      <c r="C1007" s="12"/>
+      <c r="D1007" s="12"/>
+      <c r="E1007" s="12"/>
+      <c r="F1007" s="12"/>
+      <c r="G1007" s="12"/>
+      <c r="H1007" s="3"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="3"/>
+      <c r="L1007" s="3"/>
+      <c r="M1007" s="3"/>
+      <c r="N1007" s="3"/>
+      <c r="O1007" s="3"/>
+      <c r="P1007" s="3"/>
+      <c r="Q1007" s="3"/>
+      <c r="R1007" s="3"/>
+      <c r="S1007" s="3"/>
+      <c r="T1007" s="3"/>
+      <c r="U1007" s="3"/>
+      <c r="V1007" s="3"/>
+      <c r="W1007" s="3"/>
+      <c r="X1007" s="3"/>
+      <c r="Y1007" s="3"/>
+      <c r="Z1007" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"LOW,MEDIUM,HIGH"</formula1>
     </dataValidation>
   </dataValidations>
